--- a/Code/Results/Cases/Case_3_158/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_158/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.23076474550633</v>
+        <v>11.00333457712453</v>
       </c>
       <c r="C2">
-        <v>6.308715273414771</v>
+        <v>3.568645991273135</v>
       </c>
       <c r="D2">
-        <v>5.56257129008989</v>
+        <v>8.468525394246994</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>32.9721552205533</v>
+        <v>41.64567160887763</v>
       </c>
       <c r="G2">
-        <v>42.35174166827633</v>
+        <v>48.56230286015465</v>
       </c>
       <c r="H2">
-        <v>13.51198839564911</v>
+        <v>19.13241850530223</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.161092895419142</v>
+        <v>11.42487781406987</v>
       </c>
       <c r="K2">
-        <v>10.71171888861888</v>
+        <v>10.47579132728361</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.67672237467984</v>
+        <v>16.41127631392882</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.39115320122871</v>
+        <v>10.82338134992216</v>
       </c>
       <c r="C3">
-        <v>5.973254583995092</v>
+        <v>3.384346221411306</v>
       </c>
       <c r="D3">
-        <v>5.333789110809529</v>
+        <v>8.455276172373877</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>32.28479927588081</v>
+        <v>41.59500022875628</v>
       </c>
       <c r="G3">
-        <v>41.33475949366471</v>
+        <v>48.42690861508594</v>
       </c>
       <c r="H3">
-        <v>13.42628300402388</v>
+        <v>19.15162029634745</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.103533116892116</v>
+        <v>11.43965351529483</v>
       </c>
       <c r="K3">
-        <v>10.04680433593911</v>
+        <v>10.37135141627131</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.20863174884376</v>
+        <v>16.37467763700988</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.8466707459226</v>
+        <v>10.71448951913113</v>
       </c>
       <c r="C4">
-        <v>5.757843909133394</v>
+        <v>3.265096089946604</v>
       </c>
       <c r="D4">
-        <v>5.191126132484582</v>
+        <v>8.448714176122843</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>31.87900199449881</v>
+        <v>41.57214417567096</v>
       </c>
       <c r="G4">
-        <v>40.73132392897949</v>
+        <v>48.35447850577844</v>
       </c>
       <c r="H4">
-        <v>13.38112671708969</v>
+        <v>19.16625869243896</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.071609017466058</v>
+        <v>11.45027588544444</v>
       </c>
       <c r="K4">
-        <v>9.617135263699847</v>
+        <v>10.30939957790457</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10.91820835482135</v>
+        <v>16.35549117076285</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.61744501232706</v>
+        <v>10.67058129116512</v>
       </c>
       <c r="C5">
-        <v>5.667713160473038</v>
+        <v>3.214992042616315</v>
       </c>
       <c r="D5">
-        <v>5.132525685475942</v>
+        <v>8.446438277645102</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.71777485752367</v>
+        <v>41.56491072644432</v>
       </c>
       <c r="G5">
-        <v>40.49080901382063</v>
+        <v>48.32766845995567</v>
       </c>
       <c r="H5">
-        <v>13.36454798748772</v>
+        <v>19.17293963779389</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.059444410710734</v>
+        <v>11.45499441938526</v>
       </c>
       <c r="K5">
-        <v>9.436651985109355</v>
+        <v>10.28472928169911</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.79927039932771</v>
+        <v>16.34850488110603</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.57893683994754</v>
+        <v>10.66332036701215</v>
       </c>
       <c r="C6">
-        <v>5.6526060196551</v>
+        <v>3.206581939707876</v>
       </c>
       <c r="D6">
-        <v>5.12276982228275</v>
+        <v>8.446084485521203</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.69125460323874</v>
+        <v>41.56383538043853</v>
       </c>
       <c r="G6">
-        <v>40.4512002862501</v>
+        <v>48.3233804651949</v>
       </c>
       <c r="H6">
-        <v>13.36190357273774</v>
+        <v>19.17409220927617</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.05747505962339</v>
+        <v>11.45580147416297</v>
       </c>
       <c r="K6">
-        <v>9.406357384372965</v>
+        <v>10.2806683789844</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.77949065724106</v>
+        <v>16.34739525331963</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.84360914836771</v>
+        <v>10.71389538640994</v>
       </c>
       <c r="C7">
-        <v>5.756637847560726</v>
+        <v>3.264426444374703</v>
       </c>
       <c r="D7">
-        <v>5.190337583733161</v>
+        <v>8.448681867150936</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>31.87681080596995</v>
+        <v>41.57203819396887</v>
       </c>
       <c r="G7">
-        <v>40.72805829725626</v>
+        <v>48.35410596341775</v>
       </c>
       <c r="H7">
-        <v>13.38089582318684</v>
+        <v>19.16634589715336</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.071441561114219</v>
+        <v>11.45033794278217</v>
       </c>
       <c r="K7">
-        <v>9.614723026019774</v>
+        <v>10.30906449803826</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10.91660645865294</v>
+        <v>16.35539357335239</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.94723822323556</v>
+        <v>10.94099288040755</v>
       </c>
       <c r="C8">
-        <v>6.195018240414809</v>
+        <v>3.506375369550395</v>
       </c>
       <c r="D8">
-        <v>5.48419039318226</v>
+        <v>8.4636322129495</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>32.73181834413131</v>
+        <v>41.62648959658711</v>
       </c>
       <c r="G8">
-        <v>41.99679668906072</v>
+        <v>48.51340722962434</v>
       </c>
       <c r="H8">
-        <v>13.48085463337063</v>
+        <v>19.13844778433698</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.140528278417045</v>
+        <v>11.42965081840075</v>
       </c>
       <c r="K8">
-        <v>10.48689270274514</v>
+        <v>10.43934666421322</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.51604610331375</v>
+        <v>16.39797918955622</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.88463639398762</v>
+        <v>11.39622610906249</v>
       </c>
       <c r="C9">
-        <v>6.979246684975451</v>
+        <v>3.931752569814363</v>
       </c>
       <c r="D9">
-        <v>6.03979388764246</v>
+        <v>8.505305753161295</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34.53482273442262</v>
+        <v>41.79852546690216</v>
       </c>
       <c r="G9">
-        <v>44.64647574277134</v>
+        <v>48.90994909307432</v>
       </c>
       <c r="H9">
-        <v>13.73854498122178</v>
+        <v>19.10636263823905</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.30375840226978</v>
+        <v>11.40137849069758</v>
       </c>
       <c r="K9">
-        <v>12.02817066541242</v>
+        <v>10.71077219207479</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.66119938311518</v>
+        <v>16.50725176707424</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.17403575592174</v>
+        <v>11.73300776210445</v>
       </c>
       <c r="C10">
-        <v>7.509293670123005</v>
+        <v>4.213584215782403</v>
       </c>
       <c r="D10">
-        <v>6.431784593948413</v>
+        <v>8.543271061279539</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>35.9333149062637</v>
+        <v>41.96427694745602</v>
       </c>
       <c r="G10">
-        <v>46.68579205248293</v>
+        <v>49.25138247747304</v>
       </c>
       <c r="H10">
-        <v>13.96877203001268</v>
+        <v>19.09660571773447</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.441451913901835</v>
+        <v>11.38809577993663</v>
       </c>
       <c r="K10">
-        <v>13.05930118438257</v>
+        <v>10.91809463200976</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.48194734323878</v>
+        <v>16.60278776070343</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.73250228433757</v>
+        <v>11.88596120307514</v>
       </c>
       <c r="C11">
-        <v>7.740531916638186</v>
+        <v>4.335028105926777</v>
       </c>
       <c r="D11">
-        <v>6.606027223011419</v>
+        <v>8.562093047918438</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36.58501926068009</v>
+        <v>42.04810598802722</v>
       </c>
       <c r="G11">
-        <v>47.63267646131663</v>
+        <v>49.41727128808733</v>
       </c>
       <c r="H11">
-        <v>14.08310142138024</v>
+        <v>19.09516924593602</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.508131838958512</v>
+        <v>11.38367690732641</v>
       </c>
       <c r="K11">
-        <v>13.50695531479567</v>
+        <v>11.01373257015708</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.96973679619488</v>
+        <v>16.6494512455423</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.9400251981786</v>
+        <v>11.94378385244831</v>
       </c>
       <c r="C12">
-        <v>7.826692716110871</v>
+        <v>4.380037330348477</v>
       </c>
       <c r="D12">
-        <v>6.671387606562868</v>
+        <v>8.569439301269949</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.83400474494081</v>
+        <v>42.08104889676069</v>
       </c>
       <c r="G12">
-        <v>47.99394481162847</v>
+        <v>49.48157783982714</v>
       </c>
       <c r="H12">
-        <v>14.12783428591715</v>
+        <v>19.09505680967186</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.533978132205137</v>
+        <v>11.382236732615</v>
       </c>
       <c r="K12">
-        <v>13.67344498260497</v>
+        <v>11.05010554420739</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.15110217646653</v>
+        <v>16.66757178797112</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.89550601057571</v>
+        <v>11.93133599992544</v>
       </c>
       <c r="C13">
-        <v>7.80819855809492</v>
+        <v>4.370387411059539</v>
       </c>
       <c r="D13">
-        <v>6.657339191582229</v>
+        <v>8.567847495365884</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.78028378605057</v>
+        <v>42.0739009673375</v>
       </c>
       <c r="G13">
-        <v>47.91601950151383</v>
+        <v>49.4676626240709</v>
       </c>
       <c r="H13">
-        <v>14.11813531912299</v>
+        <v>19.09506183706891</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.528384916649506</v>
+        <v>11.3825365357554</v>
       </c>
       <c r="K13">
-        <v>13.63772219072225</v>
+        <v>11.04226552720354</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.11218968937196</v>
+        <v>16.66364936208776</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.749654117033</v>
+        <v>11.8907206049059</v>
       </c>
       <c r="C14">
-        <v>7.747648438568621</v>
+        <v>4.338750691959644</v>
       </c>
       <c r="D14">
-        <v>6.611417088964896</v>
+        <v>8.562693069595745</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>36.60545949555824</v>
+        <v>42.0507922789365</v>
       </c>
       <c r="G14">
-        <v>47.66234424369545</v>
+        <v>49.42253219480502</v>
       </c>
       <c r="H14">
-        <v>14.08675244314247</v>
+        <v>19.09515134888482</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.510246195717824</v>
+        <v>11.383553752425</v>
       </c>
       <c r="K14">
-        <v>13.52071286845619</v>
+        <v>11.01672204328654</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.98472454386336</v>
+        <v>16.65093307578337</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.65980293976981</v>
+        <v>11.8658280213786</v>
       </c>
       <c r="C15">
-        <v>7.710377495666662</v>
+        <v>4.319244640137879</v>
       </c>
       <c r="D15">
-        <v>6.583206633833173</v>
+        <v>8.559564193797028</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.49866029721547</v>
+        <v>42.03679322395547</v>
       </c>
       <c r="G15">
-        <v>47.50731182266279</v>
+        <v>49.39508130705521</v>
       </c>
       <c r="H15">
-        <v>14.06771867014637</v>
+        <v>19.09526236693872</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.499213781224954</v>
+        <v>11.38420718088355</v>
       </c>
       <c r="K15">
-        <v>13.44864870230988</v>
+        <v>11.00109536555695</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.90621441731076</v>
+        <v>16.64320227383145</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.13698042255711</v>
+        <v>11.72300154638999</v>
       </c>
       <c r="C16">
-        <v>7.493984155328729</v>
+        <v>4.205510893005307</v>
       </c>
       <c r="D16">
-        <v>6.420312182427502</v>
+        <v>8.542071855143629</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>35.89103363889091</v>
+        <v>41.95896701421849</v>
       </c>
       <c r="G16">
-        <v>46.62429161192659</v>
+        <v>49.2407512738101</v>
       </c>
       <c r="H16">
-        <v>13.96149844580118</v>
+        <v>19.09675999282513</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.437176811819643</v>
+        <v>11.38841720829786</v>
       </c>
       <c r="K16">
-        <v>13.02961933422401</v>
+        <v>10.91186826455129</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.45296247897905</v>
+        <v>16.59980176724298</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.80910919394948</v>
+        <v>11.63527352138451</v>
       </c>
       <c r="C17">
-        <v>7.358712793153637</v>
+        <v>4.134001620014343</v>
       </c>
       <c r="D17">
-        <v>6.31930976562918</v>
+        <v>8.531735230468243</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>35.52222136155964</v>
+        <v>41.91337278104957</v>
       </c>
       <c r="G17">
-        <v>46.08745307377865</v>
+        <v>49.14876000997302</v>
       </c>
       <c r="H17">
-        <v>13.89883527775716</v>
+        <v>19.09844756416298</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.400164775359539</v>
+        <v>11.39141554626942</v>
       </c>
       <c r="K17">
-        <v>12.76710883866992</v>
+        <v>10.85744591226331</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.24226083969015</v>
+        <v>16.57399016436453</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.6178773656293</v>
+        <v>11.58479466816822</v>
       </c>
       <c r="C18">
-        <v>7.279976654147485</v>
+        <v>4.092235092621005</v>
       </c>
       <c r="D18">
-        <v>6.260833742288878</v>
+        <v>8.525936174686276</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.31155246354245</v>
+        <v>41.88794234199559</v>
       </c>
       <c r="G18">
-        <v>45.78048556204332</v>
+        <v>49.09684594518998</v>
       </c>
       <c r="H18">
-        <v>13.86369290902277</v>
+        <v>19.09970079349473</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.379256011464067</v>
+        <v>11.39329294423067</v>
       </c>
       <c r="K18">
-        <v>12.6141007737071</v>
+        <v>10.82627043161821</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.12044891964577</v>
+        <v>16.55944623323466</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.5526721473959</v>
+        <v>11.56770187196122</v>
       </c>
       <c r="C19">
-        <v>7.253157523856495</v>
+        <v>4.077984609352647</v>
       </c>
       <c r="D19">
-        <v>6.240970362466514</v>
+        <v>8.523997967942581</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.24047601109206</v>
+        <v>41.87946880900112</v>
       </c>
       <c r="G19">
-        <v>45.67686432051994</v>
+        <v>49.07944087499528</v>
       </c>
       <c r="H19">
-        <v>13.85194709214205</v>
+        <v>19.10017365134279</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.372241419328413</v>
+        <v>11.39395485634738</v>
       </c>
       <c r="K19">
-        <v>12.56194664700586</v>
+        <v>10.81573775946322</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.0791010148985</v>
+        <v>16.55457412718568</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.84428522001144</v>
+        <v>11.64461484402002</v>
       </c>
       <c r="C20">
-        <v>7.373208976751575</v>
+        <v>4.141679809983517</v>
       </c>
       <c r="D20">
-        <v>6.33010147612746</v>
+        <v>8.532820471016258</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>35.56133102457489</v>
+        <v>41.91814426381207</v>
       </c>
       <c r="G20">
-        <v>46.14441385160784</v>
+        <v>49.15844968583448</v>
       </c>
       <c r="H20">
-        <v>13.90541233070572</v>
+        <v>19.0982386736025</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.404065380351329</v>
+        <v>11.39108055238682</v>
       </c>
       <c r="K20">
-        <v>12.79526213161876</v>
+        <v>10.86322638408472</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.26475529463699</v>
+        <v>16.57670664965778</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.79260104127069</v>
+        <v>11.90265345514547</v>
       </c>
       <c r="C21">
-        <v>7.765471417430654</v>
+        <v>4.348069773993397</v>
       </c>
       <c r="D21">
-        <v>6.624922630302839</v>
+        <v>8.564201147479647</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.6567501148126</v>
+        <v>42.05754744219038</v>
       </c>
       <c r="G21">
-        <v>47.73678172191801</v>
+        <v>49.4357479760248</v>
       </c>
       <c r="H21">
-        <v>14.09593082975843</v>
+        <v>19.09511334778594</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.515557679216096</v>
+        <v>11.38324864613441</v>
       </c>
       <c r="K21">
-        <v>13.55516305318343</v>
+        <v>11.0242207915081</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.02225446620856</v>
+        <v>16.65465602936931</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.38936226644259</v>
+        <v>12.07070155895823</v>
       </c>
       <c r="C22">
-        <v>8.013665600098149</v>
+        <v>4.477249744721286</v>
       </c>
       <c r="D22">
-        <v>6.813972275717904</v>
+        <v>8.585983251079385</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.38548695506408</v>
+        <v>42.15563506822831</v>
       </c>
       <c r="G22">
-        <v>48.79324394223821</v>
+        <v>49.62563549625077</v>
       </c>
       <c r="H22">
-        <v>14.22886078887403</v>
+        <v>19.09558582282476</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.591906146432131</v>
+        <v>11.37948887371846</v>
       </c>
       <c r="K22">
-        <v>14.03418623118108</v>
+        <v>11.13033937295328</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.54399569272177</v>
+        <v>16.70821860539717</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.07293707974699</v>
+        <v>11.98108524637988</v>
       </c>
       <c r="C23">
-        <v>7.881940227490833</v>
+        <v>4.408827909494788</v>
       </c>
       <c r="D23">
-        <v>6.713414798967571</v>
+        <v>8.574242739397675</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.99537958844761</v>
+        <v>42.10264997885585</v>
       </c>
       <c r="G23">
-        <v>48.22795817070953</v>
+        <v>49.52350797224977</v>
       </c>
       <c r="H23">
-        <v>14.1571237126667</v>
+        <v>19.09510362446879</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.550833828309527</v>
+        <v>11.38137131717275</v>
       </c>
       <c r="K23">
-        <v>13.78011546245359</v>
+        <v>11.07363067092213</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.26729077769905</v>
+        <v>16.6793953457372</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.82839066153466</v>
+        <v>11.6403917607779</v>
       </c>
       <c r="C24">
-        <v>7.366658264824206</v>
+        <v>4.138210539685884</v>
       </c>
       <c r="D24">
-        <v>6.325223813063603</v>
+        <v>8.532329386128273</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>35.54364528776716</v>
+        <v>41.91598463857139</v>
       </c>
       <c r="G24">
-        <v>46.1186566834772</v>
+        <v>49.15406595022822</v>
       </c>
       <c r="H24">
-        <v>13.90243609750779</v>
+        <v>19.09833223135515</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.402300765628687</v>
+        <v>11.39123152460367</v>
       </c>
       <c r="K24">
-        <v>12.78254053313808</v>
+        <v>10.86061267928489</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.25458765420576</v>
+        <v>16.57547760538998</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.38437169662278</v>
+        <v>11.27240142346442</v>
       </c>
       <c r="C25">
-        <v>6.775210766483124</v>
+        <v>3.822023165791578</v>
       </c>
       <c r="D25">
-        <v>5.892111694941246</v>
+        <v>8.492727149726868</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>34.03387952228385</v>
+        <v>41.74503691621727</v>
       </c>
       <c r="G25">
-        <v>43.91301076324765</v>
+        <v>48.79377822164401</v>
       </c>
       <c r="H25">
-        <v>13.66188829807726</v>
+        <v>19.11261741371706</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.256540396846006</v>
+        <v>11.40771107697538</v>
       </c>
       <c r="K25">
-        <v>11.62915547138221</v>
+        <v>10.63582258173244</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.35546792480723</v>
+        <v>16.47497648994393</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_158/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_158/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.00333457712453</v>
+        <v>12.23076474550628</v>
       </c>
       <c r="C2">
-        <v>3.568645991273135</v>
+        <v>6.308715273414879</v>
       </c>
       <c r="D2">
-        <v>8.468525394246994</v>
+        <v>5.562571290089767</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.64567160887763</v>
+        <v>32.97215522055331</v>
       </c>
       <c r="G2">
-        <v>48.56230286015465</v>
+        <v>42.35174166827649</v>
       </c>
       <c r="H2">
-        <v>19.13241850530223</v>
+        <v>13.51198839564911</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.42487781406987</v>
+        <v>7.161092895419094</v>
       </c>
       <c r="K2">
-        <v>10.47579132728361</v>
+        <v>10.71171888861887</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.41127631392882</v>
+        <v>11.67672237467982</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.82338134992216</v>
+        <v>11.39115320122871</v>
       </c>
       <c r="C3">
-        <v>3.384346221411306</v>
+        <v>5.973254583994928</v>
       </c>
       <c r="D3">
-        <v>8.455276172373877</v>
+        <v>5.33378911080948</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>41.59500022875628</v>
+        <v>32.28479927588094</v>
       </c>
       <c r="G3">
-        <v>48.42690861508594</v>
+        <v>41.33475949366493</v>
       </c>
       <c r="H3">
-        <v>19.15162029634745</v>
+        <v>13.42628300402393</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.43965351529483</v>
+        <v>7.103533116892086</v>
       </c>
       <c r="K3">
-        <v>10.37135141627131</v>
+        <v>10.04680433593909</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.37467763700988</v>
+        <v>11.20863174884378</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.71448951913113</v>
+        <v>10.84667074592262</v>
       </c>
       <c r="C4">
-        <v>3.265096089946604</v>
+        <v>5.757843909133285</v>
       </c>
       <c r="D4">
-        <v>8.448714176122843</v>
+        <v>5.191126132484525</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>41.57214417567096</v>
+        <v>31.87900199449879</v>
       </c>
       <c r="G4">
-        <v>48.35447850577844</v>
+        <v>40.73132392897953</v>
       </c>
       <c r="H4">
-        <v>19.16625869243896</v>
+        <v>13.3811267170897</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.45027588544444</v>
+        <v>7.071609017466107</v>
       </c>
       <c r="K4">
-        <v>10.30939957790457</v>
+        <v>9.617135263699838</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.35549117076285</v>
+        <v>10.91820835482138</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.67058129116512</v>
+        <v>10.61744501232716</v>
       </c>
       <c r="C5">
-        <v>3.214992042616315</v>
+        <v>5.667713160473134</v>
       </c>
       <c r="D5">
-        <v>8.446438277645102</v>
+        <v>5.132525685475858</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>41.56491072644432</v>
+        <v>31.71777485752317</v>
       </c>
       <c r="G5">
-        <v>48.32766845995567</v>
+        <v>40.49080901382002</v>
       </c>
       <c r="H5">
-        <v>19.17293963779389</v>
+        <v>13.36454798748756</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.45499441938526</v>
+        <v>7.059444410710797</v>
       </c>
       <c r="K5">
-        <v>10.28472928169911</v>
+        <v>9.436651985109499</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.34850488110603</v>
+        <v>10.79927039932764</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.66332036701215</v>
+        <v>10.5789368399475</v>
       </c>
       <c r="C6">
-        <v>3.206581939707876</v>
+        <v>5.652606019655198</v>
       </c>
       <c r="D6">
-        <v>8.446084485521203</v>
+        <v>5.122769822282792</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>41.56383538043853</v>
+        <v>31.69125460323883</v>
       </c>
       <c r="G6">
-        <v>48.3233804651949</v>
+        <v>40.45120028625021</v>
       </c>
       <c r="H6">
-        <v>19.17409220927617</v>
+        <v>13.36190357273784</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.45580147416297</v>
+        <v>7.057475059623449</v>
       </c>
       <c r="K6">
-        <v>10.2806683789844</v>
+        <v>9.406357384372962</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.34739525331963</v>
+        <v>10.77949065724109</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.71389538640994</v>
+        <v>10.84360914836776</v>
       </c>
       <c r="C7">
-        <v>3.264426444374703</v>
+        <v>5.75663784756065</v>
       </c>
       <c r="D7">
-        <v>8.448681867150936</v>
+        <v>5.190337583733064</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>41.57203819396887</v>
+        <v>31.87681080596979</v>
       </c>
       <c r="G7">
-        <v>48.35410596341775</v>
+        <v>40.72805829725613</v>
       </c>
       <c r="H7">
-        <v>19.16634589715336</v>
+        <v>13.38089582318674</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.45033794278217</v>
+        <v>7.071441561114221</v>
       </c>
       <c r="K7">
-        <v>10.30906449803826</v>
+        <v>9.614723026019828</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.35539357335239</v>
+        <v>10.91660645865291</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.94099288040755</v>
+        <v>11.94723822323551</v>
       </c>
       <c r="C8">
-        <v>3.506375369550395</v>
+        <v>6.195018240414949</v>
       </c>
       <c r="D8">
-        <v>8.4636322129495</v>
+        <v>5.484190393182159</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>41.62648959658711</v>
+        <v>32.73181834413111</v>
       </c>
       <c r="G8">
-        <v>48.51340722962434</v>
+        <v>41.99679668906056</v>
       </c>
       <c r="H8">
-        <v>19.13844778433698</v>
+        <v>13.48085463337049</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.42965081840075</v>
+        <v>7.140528278417045</v>
       </c>
       <c r="K8">
-        <v>10.43934666421322</v>
+        <v>10.48689270274515</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.39797918955622</v>
+        <v>11.51604610331373</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.39622610906249</v>
+        <v>13.8846363939877</v>
       </c>
       <c r="C9">
-        <v>3.931752569814363</v>
+        <v>6.979246684975453</v>
       </c>
       <c r="D9">
-        <v>8.505305753161295</v>
+        <v>6.039793887642404</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>41.79852546690216</v>
+        <v>34.5348227344225</v>
       </c>
       <c r="G9">
-        <v>48.90994909307432</v>
+        <v>44.64647574277117</v>
       </c>
       <c r="H9">
-        <v>19.10636263823905</v>
+        <v>13.73854498122169</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.40137849069758</v>
+        <v>7.303758402269786</v>
       </c>
       <c r="K9">
-        <v>10.71077219207479</v>
+        <v>12.02817066541252</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.50725176707424</v>
+        <v>12.66119938311512</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.73300776210445</v>
+        <v>15.17403575592181</v>
       </c>
       <c r="C10">
-        <v>4.213584215782403</v>
+        <v>7.509293670122831</v>
       </c>
       <c r="D10">
-        <v>8.543271061279539</v>
+        <v>6.431784593948428</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>41.96427694745602</v>
+        <v>35.93331490626369</v>
       </c>
       <c r="G10">
-        <v>49.25138247747304</v>
+        <v>46.68579205248293</v>
       </c>
       <c r="H10">
-        <v>19.09660571773447</v>
+        <v>13.96877203001264</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.38809577993663</v>
+        <v>7.44145191390178</v>
       </c>
       <c r="K10">
-        <v>10.91809463200976</v>
+        <v>13.05930118438261</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.60278776070343</v>
+        <v>13.48194734323883</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.88596120307514</v>
+        <v>15.7325022843375</v>
       </c>
       <c r="C11">
-        <v>4.335028105926777</v>
+        <v>7.740531916638519</v>
       </c>
       <c r="D11">
-        <v>8.562093047918438</v>
+        <v>6.606027223011417</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>42.04810598802722</v>
+        <v>36.58501926068023</v>
       </c>
       <c r="G11">
-        <v>49.41727128808733</v>
+        <v>47.63267646131686</v>
       </c>
       <c r="H11">
-        <v>19.09516924593602</v>
+        <v>14.08310142138026</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.38367690732641</v>
+        <v>7.508131838958477</v>
       </c>
       <c r="K11">
-        <v>11.01373257015708</v>
+        <v>13.50695531479571</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.6494512455423</v>
+        <v>13.96973679619492</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.94378385244831</v>
+        <v>15.94002519817858</v>
       </c>
       <c r="C12">
-        <v>4.380037330348477</v>
+        <v>7.826692716111064</v>
       </c>
       <c r="D12">
-        <v>8.569439301269949</v>
+        <v>6.671387606562878</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>42.08104889676069</v>
+        <v>36.83400474494087</v>
       </c>
       <c r="G12">
-        <v>49.48157783982714</v>
+        <v>47.99394481162854</v>
       </c>
       <c r="H12">
-        <v>19.09505680967186</v>
+        <v>14.12783428591717</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.382236732615</v>
+        <v>7.533978132205077</v>
       </c>
       <c r="K12">
-        <v>11.05010554420739</v>
+        <v>13.67344498260499</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.66757178797112</v>
+        <v>14.15110217646656</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.93133599992544</v>
+        <v>15.89550601057569</v>
       </c>
       <c r="C13">
-        <v>4.370387411059539</v>
+        <v>7.80819855809492</v>
       </c>
       <c r="D13">
-        <v>8.567847495365884</v>
+        <v>6.657339191582181</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>42.0739009673375</v>
+        <v>36.78028378605055</v>
       </c>
       <c r="G13">
-        <v>49.4676626240709</v>
+        <v>47.91601950151374</v>
       </c>
       <c r="H13">
-        <v>19.09506183706891</v>
+        <v>14.118135319123</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.3825365357554</v>
+        <v>7.528384916649518</v>
       </c>
       <c r="K13">
-        <v>11.04226552720354</v>
+        <v>13.63772219072222</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.66364936208776</v>
+        <v>14.11218968937199</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.8907206049059</v>
+        <v>15.74965411703294</v>
       </c>
       <c r="C14">
-        <v>4.338750691959644</v>
+        <v>7.747648438568786</v>
       </c>
       <c r="D14">
-        <v>8.562693069595745</v>
+        <v>6.611417088964901</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>42.0507922789365</v>
+        <v>36.60545949555833</v>
       </c>
       <c r="G14">
-        <v>49.42253219480502</v>
+        <v>47.66234424369561</v>
       </c>
       <c r="H14">
-        <v>19.09515134888482</v>
+        <v>14.0867524431425</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.383553752425</v>
+        <v>7.510246195717865</v>
       </c>
       <c r="K14">
-        <v>11.01672204328654</v>
+        <v>13.52071286845619</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.65093307578337</v>
+        <v>13.98472454386338</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.8658280213786</v>
+        <v>15.65980293976978</v>
       </c>
       <c r="C15">
-        <v>4.319244640137879</v>
+        <v>7.710377495666744</v>
       </c>
       <c r="D15">
-        <v>8.559564193797028</v>
+        <v>6.583206633833179</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>42.03679322395547</v>
+        <v>36.49866029721548</v>
       </c>
       <c r="G15">
-        <v>49.39508130705521</v>
+        <v>47.50731182266279</v>
       </c>
       <c r="H15">
-        <v>19.09526236693872</v>
+        <v>14.06771867014636</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.38420718088355</v>
+        <v>7.499213781224986</v>
       </c>
       <c r="K15">
-        <v>11.00109536555695</v>
+        <v>13.44864870230983</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.64320227383145</v>
+        <v>13.90621441731075</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.72300154638999</v>
+        <v>15.13698042255705</v>
       </c>
       <c r="C16">
-        <v>4.205510893005307</v>
+        <v>7.493984155328722</v>
       </c>
       <c r="D16">
-        <v>8.542071855143629</v>
+        <v>6.42031218242747</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>41.95896701421849</v>
+        <v>35.89103363889088</v>
       </c>
       <c r="G16">
-        <v>49.2407512738101</v>
+        <v>46.62429161192652</v>
       </c>
       <c r="H16">
-        <v>19.09675999282513</v>
+        <v>13.96149844580122</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.38841720829786</v>
+        <v>7.43717681181958</v>
       </c>
       <c r="K16">
-        <v>10.91186826455129</v>
+        <v>13.02961933422397</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.59980176724298</v>
+        <v>13.45296247897905</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.63527352138451</v>
+        <v>14.80910919394953</v>
       </c>
       <c r="C17">
-        <v>4.134001620014343</v>
+        <v>7.358712793153551</v>
       </c>
       <c r="D17">
-        <v>8.531735230468243</v>
+        <v>6.319309765629118</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>41.91337278104957</v>
+        <v>35.52222136155947</v>
       </c>
       <c r="G17">
-        <v>49.14876000997302</v>
+        <v>46.08745307377851</v>
       </c>
       <c r="H17">
-        <v>19.09844756416298</v>
+        <v>13.89883527775711</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.39141554626942</v>
+        <v>7.400164775359586</v>
       </c>
       <c r="K17">
-        <v>10.85744591226331</v>
+        <v>12.76710883866996</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.57399016436453</v>
+        <v>13.24226083969014</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.58479466816822</v>
+        <v>14.61787736562928</v>
       </c>
       <c r="C18">
-        <v>4.092235092621005</v>
+        <v>7.27997665414777</v>
       </c>
       <c r="D18">
-        <v>8.525936174686276</v>
+        <v>6.260833742288936</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>41.88794234199559</v>
+        <v>35.31155246354243</v>
       </c>
       <c r="G18">
-        <v>49.09684594518998</v>
+        <v>45.78048556204328</v>
       </c>
       <c r="H18">
-        <v>19.09970079349473</v>
+        <v>13.86369290902276</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.39329294423067</v>
+        <v>7.379256011464057</v>
       </c>
       <c r="K18">
-        <v>10.82627043161821</v>
+        <v>12.61410077370714</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.55944623323466</v>
+        <v>13.12044891964577</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.56770187196122</v>
+        <v>14.55267214739584</v>
       </c>
       <c r="C19">
-        <v>4.077984609352647</v>
+        <v>7.253157523856589</v>
       </c>
       <c r="D19">
-        <v>8.523997967942581</v>
+        <v>6.240970362466544</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.87946880900112</v>
+        <v>35.24047601109209</v>
       </c>
       <c r="G19">
-        <v>49.07944087499528</v>
+        <v>45.67686432051996</v>
       </c>
       <c r="H19">
-        <v>19.10017365134279</v>
+        <v>13.85194709214214</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.39395485634738</v>
+        <v>7.37224141932841</v>
       </c>
       <c r="K19">
-        <v>10.81573775946322</v>
+        <v>12.56194664700585</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.55457412718568</v>
+        <v>13.0791010148985</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.64461484402002</v>
+        <v>14.84428522001144</v>
       </c>
       <c r="C20">
-        <v>4.141679809983517</v>
+        <v>7.373208976751464</v>
       </c>
       <c r="D20">
-        <v>8.532820471016258</v>
+        <v>6.330101476127452</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>41.91814426381207</v>
+        <v>35.5613310245751</v>
       </c>
       <c r="G20">
-        <v>49.15844968583448</v>
+        <v>46.14441385160812</v>
       </c>
       <c r="H20">
-        <v>19.0982386736025</v>
+        <v>13.90541233070581</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.39108055238682</v>
+        <v>7.404065380351332</v>
       </c>
       <c r="K20">
-        <v>10.86322638408472</v>
+        <v>12.79526213161875</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.57670664965778</v>
+        <v>13.264755294637</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.90265345514547</v>
+        <v>15.79260104127066</v>
       </c>
       <c r="C21">
-        <v>4.348069773993397</v>
+        <v>7.765471417430746</v>
       </c>
       <c r="D21">
-        <v>8.564201147479647</v>
+        <v>6.624922630302836</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>42.05754744219038</v>
+        <v>36.65675011481261</v>
       </c>
       <c r="G21">
-        <v>49.4357479760248</v>
+        <v>47.73678172191808</v>
       </c>
       <c r="H21">
-        <v>19.09511334778594</v>
+        <v>14.09593082975844</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.38324864613441</v>
+        <v>7.515557679216117</v>
       </c>
       <c r="K21">
-        <v>11.0242207915081</v>
+        <v>13.55516305318339</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.65465602936931</v>
+        <v>14.02225446620852</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.07070155895823</v>
+        <v>16.38936226644257</v>
       </c>
       <c r="C22">
-        <v>4.477249744721286</v>
+        <v>8.013665600098221</v>
       </c>
       <c r="D22">
-        <v>8.585983251079385</v>
+        <v>6.813972275717889</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>42.15563506822831</v>
+        <v>37.38548695506403</v>
       </c>
       <c r="G22">
-        <v>49.62563549625077</v>
+        <v>48.7932439422382</v>
       </c>
       <c r="H22">
-        <v>19.09558582282476</v>
+        <v>14.228860788874</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.37948887371846</v>
+        <v>7.591906146432094</v>
       </c>
       <c r="K22">
-        <v>11.13033937295328</v>
+        <v>14.03418623118111</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.70821860539717</v>
+        <v>14.5439956927218</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.98108524637988</v>
+        <v>16.07293707974698</v>
       </c>
       <c r="C23">
-        <v>4.408827909494788</v>
+        <v>7.881940227490918</v>
       </c>
       <c r="D23">
-        <v>8.574242739397675</v>
+        <v>6.713414798967563</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>42.10264997885585</v>
+        <v>36.99537958844758</v>
       </c>
       <c r="G23">
-        <v>49.52350797224977</v>
+        <v>48.22795817070965</v>
       </c>
       <c r="H23">
-        <v>19.09510362446879</v>
+        <v>14.15712371266661</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.38137131717275</v>
+        <v>7.550833828309438</v>
       </c>
       <c r="K23">
-        <v>11.07363067092213</v>
+        <v>13.78011546245362</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.6793953457372</v>
+        <v>14.26729077769913</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.6403917607779</v>
+        <v>14.8283906615347</v>
       </c>
       <c r="C24">
-        <v>4.138210539685884</v>
+        <v>7.366658264824228</v>
       </c>
       <c r="D24">
-        <v>8.532329386128273</v>
+        <v>6.32522381306356</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>41.91598463857139</v>
+        <v>35.54364528776705</v>
       </c>
       <c r="G24">
-        <v>49.15406595022822</v>
+        <v>46.11865668347704</v>
       </c>
       <c r="H24">
-        <v>19.09833223135515</v>
+        <v>13.90243609750786</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.39123152460367</v>
+        <v>7.402300765628731</v>
       </c>
       <c r="K24">
-        <v>10.86061267928489</v>
+        <v>12.78254053313811</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.57547760538998</v>
+        <v>13.25458765420575</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.27240142346442</v>
+        <v>13.3843716966228</v>
       </c>
       <c r="C25">
-        <v>3.822023165791578</v>
+        <v>6.775210766483131</v>
       </c>
       <c r="D25">
-        <v>8.492727149726868</v>
+        <v>5.892111694941119</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>41.74503691621727</v>
+        <v>34.03387952228368</v>
       </c>
       <c r="G25">
-        <v>48.79377822164401</v>
+        <v>43.91301076324744</v>
       </c>
       <c r="H25">
-        <v>19.11261741371706</v>
+        <v>13.66188829807718</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.40771107697538</v>
+        <v>7.256540396846058</v>
       </c>
       <c r="K25">
-        <v>10.63582258173244</v>
+        <v>11.62915547138223</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.47497648994393</v>
+        <v>12.35546792480721</v>
       </c>
       <c r="N25">
         <v>0</v>
